--- a/dist/document/dest/2020/10/doctors/51.xlsx
+++ b/dist/document/dest/2020/10/doctors/51.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
-        <v>6050</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>10</v>
       </c>
-      <c r="C3" s="1">
-        <v>50000</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>142</v>
       </c>
-      <c r="C4" s="1">
-        <v>1077780</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>182</v>
       </c>
-      <c r="C5" s="1">
-        <v>50596</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>2516</v>
       </c>
-      <c r="C6" s="1">
-        <v>14467000</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>30</v>
       </c>
-      <c r="C7" s="1">
-        <v>113700</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="1">
-        <v>32500</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>14</v>
       </c>
-      <c r="C9" s="1">
-        <v>320180</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>50</v>
       </c>
-      <c r="C10" s="1">
-        <v>949000</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>104</v>
       </c>
-      <c r="C11" s="1">
-        <v>340600</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>1665</v>
       </c>
-      <c r="C12" s="1">
-        <v>3638025</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>364</v>
       </c>
-      <c r="C13" s="1">
-        <v>939120</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>112</v>
       </c>
-      <c r="C14" s="1">
-        <v>48160</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>56</v>
       </c>
-      <c r="C15" s="1">
-        <v>315560</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>21</v>
       </c>
-      <c r="C16" s="1">
-        <v>151305</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>10</v>
       </c>
-      <c r="C17" s="1">
-        <v>132000</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>74</v>
       </c>
-      <c r="C18" s="1">
-        <v>504680</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>560</v>
       </c>
-      <c r="C19" s="1">
-        <v>2027200</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -602,9 +548,6 @@
       <c r="B20" s="1">
         <v>484</v>
       </c>
-      <c r="C20" s="1">
-        <v>2386120</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -613,9 +556,6 @@
       <c r="B21" s="1">
         <v>539</v>
       </c>
-      <c r="C21" s="1">
-        <v>6521900</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -624,9 +564,6 @@
       <c r="B22" s="1">
         <v>878</v>
       </c>
-      <c r="C22" s="1">
-        <v>3029100</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -635,9 +572,6 @@
       <c r="B23" s="1">
         <v>84</v>
       </c>
-      <c r="C23" s="1">
-        <v>772800</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -646,9 +580,6 @@
       <c r="B24" s="1">
         <v>336</v>
       </c>
-      <c r="C24" s="1">
-        <v>1380960</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -657,9 +588,6 @@
       <c r="B25" s="1">
         <v>368</v>
       </c>
-      <c r="C25" s="1">
-        <v>1142640</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -668,9 +596,6 @@
       <c r="B26" s="1">
         <v>126</v>
       </c>
-      <c r="C26" s="1">
-        <v>454860</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -679,9 +604,6 @@
       <c r="B27" s="1">
         <v>252</v>
       </c>
-      <c r="C27" s="1">
-        <v>61740</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -690,9 +612,6 @@
       <c r="B28" s="1">
         <v>519</v>
       </c>
-      <c r="C28" s="1">
-        <v>155700</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -701,9 +620,6 @@
       <c r="B29" s="1">
         <v>7</v>
       </c>
-      <c r="C29" s="1">
-        <v>7630</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -712,9 +628,6 @@
       <c r="B30" s="1">
         <v>506</v>
       </c>
-      <c r="C30" s="1">
-        <v>1280180</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -723,9 +636,6 @@
       <c r="B31" s="1">
         <v>56</v>
       </c>
-      <c r="C31" s="1">
-        <v>428400</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -734,9 +644,6 @@
       <c r="B32" s="1">
         <v>84</v>
       </c>
-      <c r="C32" s="1">
-        <v>662760</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -745,9 +652,6 @@
       <c r="B33" s="1">
         <v>642</v>
       </c>
-      <c r="C33" s="1">
-        <v>6708900</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -756,9 +660,6 @@
       <c r="B34" s="1">
         <v>2296</v>
       </c>
-      <c r="C34" s="1">
-        <v>13890800</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -767,9 +668,6 @@
       <c r="B35" s="1">
         <v>296</v>
       </c>
-      <c r="C35" s="1">
-        <v>4721200</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -778,9 +676,6 @@
       <c r="B36" s="1">
         <v>1176</v>
       </c>
-      <c r="C36" s="1">
-        <v>4868640</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -789,9 +684,6 @@
       <c r="B37" s="1">
         <v>591</v>
       </c>
-      <c r="C37" s="1">
-        <v>12647400</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -800,9 +692,6 @@
       <c r="B38" s="1">
         <v>868</v>
       </c>
-      <c r="C38" s="1">
-        <v>18575200</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -811,9 +700,6 @@
       <c r="B39" s="1">
         <v>2</v>
       </c>
-      <c r="C39" s="1">
-        <v>194000</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -822,9 +708,6 @@
       <c r="B40" s="1">
         <v>168</v>
       </c>
-      <c r="C40" s="1">
-        <v>1519560</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -833,9 +716,6 @@
       <c r="B41" s="1">
         <v>2455</v>
       </c>
-      <c r="C41" s="1">
-        <v>25041000</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -844,9 +724,6 @@
       <c r="B42" s="1">
         <v>40</v>
       </c>
-      <c r="C42" s="1">
-        <v>151600</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
@@ -855,9 +732,6 @@
       <c r="B43" s="1">
         <v>2428</v>
       </c>
-      <c r="C43" s="1">
-        <v>11168800</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
@@ -866,9 +740,6 @@
       <c r="B44" s="1">
         <v>2188</v>
       </c>
-      <c r="C44" s="1">
-        <v>12515360</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
@@ -877,9 +748,6 @@
       <c r="B45" s="1">
         <v>14</v>
       </c>
-      <c r="C45" s="1">
-        <v>76160</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
@@ -888,9 +756,6 @@
       <c r="B46" s="1">
         <v>732</v>
       </c>
-      <c r="C46" s="1">
-        <v>3111000</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -899,9 +764,6 @@
       <c r="B47" s="1">
         <v>238</v>
       </c>
-      <c r="C47" s="1">
-        <v>436730</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -910,9 +772,6 @@
       <c r="B48" s="1">
         <v>140</v>
       </c>
-      <c r="C48" s="1">
-        <v>572600</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
@@ -921,9 +780,6 @@
       <c r="B49" s="1">
         <v>756</v>
       </c>
-      <c r="C49" s="1">
-        <v>3961440</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
@@ -932,9 +788,6 @@
       <c r="B50" s="1">
         <v>924</v>
       </c>
-      <c r="C50" s="1">
-        <v>5008080</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
@@ -943,9 +796,6 @@
       <c r="B51" s="1">
         <v>336</v>
       </c>
-      <c r="C51" s="1">
-        <v>2882880</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
@@ -954,9 +804,6 @@
       <c r="B52" s="1">
         <v>56</v>
       </c>
-      <c r="C52" s="1">
-        <v>225400</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
@@ -965,9 +812,6 @@
       <c r="B53" s="1">
         <v>1746</v>
       </c>
-      <c r="C53" s="1">
-        <v>4818960</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
@@ -976,9 +820,6 @@
       <c r="B54" s="1">
         <v>891</v>
       </c>
-      <c r="C54" s="1">
-        <v>3073950</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
@@ -987,9 +828,6 @@
       <c r="B55" s="1">
         <v>56</v>
       </c>
-      <c r="C55" s="1">
-        <v>813120</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
@@ -998,9 +836,6 @@
       <c r="B56" s="1">
         <v>56</v>
       </c>
-      <c r="C56" s="1">
-        <v>515200</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
@@ -1009,9 +844,6 @@
       <c r="B57" s="1">
         <v>12</v>
       </c>
-      <c r="C57" s="1">
-        <v>696000</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
@@ -1020,9 +852,6 @@
       <c r="B58" s="1">
         <v>176</v>
       </c>
-      <c r="C58" s="1">
-        <v>545600</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
@@ -1031,9 +860,6 @@
       <c r="B59" s="1">
         <v>906</v>
       </c>
-      <c r="C59" s="1">
-        <v>3125700</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
@@ -1042,9 +868,6 @@
       <c r="B60" s="1">
         <v>26</v>
       </c>
-      <c r="C60" s="1">
-        <v>7696000</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
@@ -1053,9 +876,6 @@
       <c r="B61" s="1">
         <v>322</v>
       </c>
-      <c r="C61" s="1">
-        <v>544180</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
@@ -1064,9 +884,6 @@
       <c r="B62" s="1">
         <v>1410</v>
       </c>
-      <c r="C62" s="1">
-        <v>1628550</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
@@ -1075,9 +892,6 @@
       <c r="B63" s="1">
         <v>1656</v>
       </c>
-      <c r="C63" s="1">
-        <v>12386880</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
@@ -1086,9 +900,6 @@
       <c r="B64" s="1">
         <v>56</v>
       </c>
-      <c r="C64" s="1">
-        <v>1089200</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
@@ -1097,9 +908,6 @@
       <c r="B65" s="1">
         <v>84</v>
       </c>
-      <c r="C65" s="1">
-        <v>1293600</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
@@ -1108,9 +916,6 @@
       <c r="B66" s="1">
         <v>1604</v>
       </c>
-      <c r="C66" s="1">
-        <v>7747320</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
@@ -1119,9 +924,6 @@
       <c r="B67" s="1">
         <v>174</v>
       </c>
-      <c r="C67" s="1">
-        <v>320160</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
@@ -1130,9 +932,6 @@
       <c r="B68" s="1">
         <v>168</v>
       </c>
-      <c r="C68" s="1">
-        <v>356160</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
@@ -1141,9 +940,6 @@
       <c r="B69" s="1">
         <v>20</v>
       </c>
-      <c r="C69" s="1">
-        <v>28600</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
@@ -1152,9 +948,6 @@
       <c r="B70" s="1">
         <v>7</v>
       </c>
-      <c r="C70" s="1">
-        <v>1048600</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
@@ -1163,9 +956,6 @@
       <c r="B71" s="1">
         <v>3</v>
       </c>
-      <c r="C71" s="1">
-        <v>297000</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
@@ -1174,9 +964,6 @@
       <c r="B72" s="1">
         <v>58</v>
       </c>
-      <c r="C72" s="1">
-        <v>142680</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
@@ -1185,9 +972,6 @@
       <c r="B73" s="1">
         <v>49</v>
       </c>
-      <c r="C73" s="1">
-        <v>201880</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
@@ -1196,9 +980,6 @@
       <c r="B74" s="1">
         <v>70</v>
       </c>
-      <c r="C74" s="1">
-        <v>217000</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
@@ -1207,9 +988,6 @@
       <c r="B75" s="1">
         <v>706</v>
       </c>
-      <c r="C75" s="1">
-        <v>9107400</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
@@ -1218,9 +996,6 @@
       <c r="B76" s="1">
         <v>196</v>
       </c>
-      <c r="C76" s="1">
-        <v>4841200</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
@@ -1229,9 +1004,6 @@
       <c r="B77" s="1">
         <v>168</v>
       </c>
-      <c r="C77" s="1">
-        <v>110040</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
@@ -1240,9 +1012,6 @@
       <c r="B78" s="1">
         <v>412</v>
       </c>
-      <c r="C78" s="1">
-        <v>1658300</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
@@ -1251,9 +1020,6 @@
       <c r="B79" s="1">
         <v>732</v>
       </c>
-      <c r="C79" s="1">
-        <v>3367200</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
@@ -1262,9 +1028,6 @@
       <c r="B80" s="1">
         <v>194</v>
       </c>
-      <c r="C80" s="1">
-        <v>479180</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
@@ -1273,9 +1036,6 @@
       <c r="B81" s="1">
         <v>19</v>
       </c>
-      <c r="C81" s="1">
-        <v>5092000</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
@@ -1284,9 +1044,6 @@
       <c r="B82" s="1">
         <v>4</v>
       </c>
-      <c r="C82" s="1">
-        <v>1080000</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
@@ -1295,9 +1052,6 @@
       <c r="B83" s="1">
         <v>28</v>
       </c>
-      <c r="C83" s="1">
-        <v>235620</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
@@ -1306,9 +1060,6 @@
       <c r="B84" s="1">
         <v>2565</v>
       </c>
-      <c r="C84" s="1">
-        <v>27932850</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
@@ -1317,9 +1068,6 @@
       <c r="B85" s="1">
         <v>20</v>
       </c>
-      <c r="C85" s="1">
-        <v>25500</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
@@ -1328,9 +1076,6 @@
       <c r="B86" s="1">
         <v>84</v>
       </c>
-      <c r="C86" s="1">
-        <v>417480</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
@@ -1339,9 +1084,6 @@
       <c r="B87" s="1">
         <v>2200</v>
       </c>
-      <c r="C87" s="1">
-        <v>6952000</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
@@ -1350,9 +1092,6 @@
       <c r="B88" s="1">
         <v>84</v>
       </c>
-      <c r="C88" s="1">
-        <v>387240</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
@@ -1361,9 +1100,6 @@
       <c r="B89" s="1">
         <v>588</v>
       </c>
-      <c r="C89" s="1">
-        <v>1960980</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
@@ -1372,9 +1108,6 @@
       <c r="B90" s="1">
         <v>56</v>
       </c>
-      <c r="C90" s="1">
-        <v>1579200</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
@@ -1383,9 +1116,6 @@
       <c r="B91" s="1">
         <v>1</v>
       </c>
-      <c r="C91" s="1">
-        <v>6500</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
@@ -1394,9 +1124,6 @@
       <c r="B92" s="1">
         <v>280</v>
       </c>
-      <c r="C92" s="1">
-        <v>127400</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
@@ -1405,9 +1132,6 @@
       <c r="B93" s="1">
         <v>7</v>
       </c>
-      <c r="C93" s="1">
-        <v>261800</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
@@ -1416,9 +1140,6 @@
       <c r="B94" s="1">
         <v>20</v>
       </c>
-      <c r="C94" s="1">
-        <v>42400</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
@@ -1427,9 +1148,6 @@
       <c r="B95" s="1">
         <v>84</v>
       </c>
-      <c r="C95" s="1">
-        <v>776160</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
@@ -1438,9 +1156,6 @@
       <c r="B96" s="1">
         <v>3562</v>
       </c>
-      <c r="C96" s="1">
-        <v>25468300</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
@@ -1449,9 +1164,6 @@
       <c r="B97" s="1">
         <v>3</v>
       </c>
-      <c r="C97" s="1">
-        <v>1320000</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
@@ -1460,9 +1172,6 @@
       <c r="B98" s="1">
         <v>742</v>
       </c>
-      <c r="C98" s="1">
-        <v>2942030</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
@@ -1471,9 +1180,6 @@
       <c r="B99" s="1">
         <v>56</v>
       </c>
-      <c r="C99" s="1">
-        <v>492800</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
@@ -1482,9 +1188,6 @@
       <c r="B100" s="1">
         <v>20</v>
       </c>
-      <c r="C100" s="1">
-        <v>417400</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
@@ -1493,9 +1196,6 @@
       <c r="B101" s="1">
         <v>56</v>
       </c>
-      <c r="C101" s="1">
-        <v>29120</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
@@ -1504,9 +1204,6 @@
       <c r="B102" s="1">
         <v>371</v>
       </c>
-      <c r="C102" s="1">
-        <v>315350</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
@@ -1515,9 +1212,6 @@
       <c r="B103" s="1">
         <v>1498</v>
       </c>
-      <c r="C103" s="1">
-        <v>16313220</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
@@ -1526,9 +1220,6 @@
       <c r="B104" s="1">
         <v>2</v>
       </c>
-      <c r="C104" s="1">
-        <v>31340</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
@@ -1537,9 +1228,6 @@
       <c r="B105" s="1">
         <v>228</v>
       </c>
-      <c r="C105" s="1">
-        <v>157320</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
@@ -1548,9 +1236,6 @@
       <c r="B106" s="1">
         <v>21</v>
       </c>
-      <c r="C106" s="1">
-        <v>108675</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
@@ -1559,9 +1244,6 @@
       <c r="B107" s="1">
         <v>126</v>
       </c>
-      <c r="C107" s="1">
-        <v>612360</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
@@ -1570,9 +1252,6 @@
       <c r="B108" s="1">
         <v>112</v>
       </c>
-      <c r="C108" s="1">
-        <v>850080</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
@@ -1581,9 +1260,6 @@
       <c r="B109" s="1">
         <v>3702</v>
       </c>
-      <c r="C109" s="1">
-        <v>5960220</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
@@ -1592,9 +1268,6 @@
       <c r="B110" s="1">
         <v>168</v>
       </c>
-      <c r="C110" s="1">
-        <v>2985360</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
@@ -1603,9 +1276,6 @@
       <c r="B111" s="1">
         <v>644</v>
       </c>
-      <c r="C111" s="1">
-        <v>2221800</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
@@ -1614,9 +1284,6 @@
       <c r="B112" s="1">
         <v>112</v>
       </c>
-      <c r="C112" s="1">
-        <v>319200</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
@@ -1625,9 +1292,6 @@
       <c r="B113" s="1">
         <v>4667</v>
       </c>
-      <c r="C113" s="1">
-        <v>11270805</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
@@ -1636,9 +1300,6 @@
       <c r="B114" s="1">
         <v>140</v>
       </c>
-      <c r="C114" s="1">
-        <v>478800</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
@@ -1647,9 +1308,6 @@
       <c r="B115" s="1">
         <v>42</v>
       </c>
-      <c r="C115" s="1">
-        <v>120750</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
@@ -1658,9 +1316,6 @@
       <c r="B116" s="1">
         <v>4426</v>
       </c>
-      <c r="C116" s="1">
-        <v>37975080</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
@@ -1669,9 +1324,6 @@
       <c r="B117" s="1">
         <v>126</v>
       </c>
-      <c r="C117" s="1">
-        <v>85680</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
@@ -1680,9 +1332,6 @@
       <c r="B118" s="1">
         <v>1</v>
       </c>
-      <c r="C118" s="1">
-        <v>69500</v>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
@@ -1692,7 +1341,7 @@
         <v>65320</v>
       </c>
       <c r="C119" s="1">
-        <v>397296976</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/51.xlsx
+++ b/dist/document/dest/2020/10/doctors/51.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C119"/>
+  <dimension ref="A1:C193"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,26 +399,35 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Albenca 400mg (Albendazole)</v>
+        <v>Aleradin (Desloratadine 5mg)</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="C2" s="1">
+        <v>303600</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v xml:space="preserve">Alcool </v>
+        <v>Amitriptyline (Elavil 25)</v>
       </c>
       <c r="B3" s="1">
-        <v>10</v>
+        <v>70</v>
+      </c>
+      <c r="C3" s="1">
+        <v>19460</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Aleradin (Desloratadine 5mg)</v>
+        <v>Amitriptyline (Elavil 25)</v>
       </c>
       <c r="B4" s="1">
-        <v>142</v>
+        <v>127</v>
+      </c>
+      <c r="C4" s="1">
+        <v>35306</v>
       </c>
     </row>
     <row r="5">
@@ -426,7 +435,10 @@
         <v>Amitriptyline (Elavil 25)</v>
       </c>
       <c r="B5" s="1">
-        <v>182</v>
+        <v>84</v>
+      </c>
+      <c r="C5" s="1">
+        <v>23352</v>
       </c>
     </row>
     <row r="6">
@@ -434,919 +446,2072 @@
         <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B6" s="1">
-        <v>2516</v>
+        <v>700</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4025000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Arcalion (Sulbutiamine 200mg)</v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B7" s="1">
-        <v>30</v>
+        <v>1310</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7532500</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v xml:space="preserve">Aspartam </v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>84</v>
+      </c>
+      <c r="C8" s="1">
+        <v>483000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Augmentin 1g (Amoxicillin+ kali clavulanate)</v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B9" s="1">
-        <v>14</v>
+        <v>56</v>
+      </c>
+      <c r="C9" s="1">
+        <v>322000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Avodart (Dutasteride 0.5mg)</v>
+        <v>Arcalion (Sulbutiamine 200mg)</v>
       </c>
       <c r="B10" s="1">
-        <v>50</v>
+        <v>60</v>
+      </c>
+      <c r="C10" s="1">
+        <v>227400</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Be-Stedy 16 (Betahistine 16mg)</v>
+        <v xml:space="preserve">Aspartam </v>
       </c>
       <c r="B11" s="1">
-        <v>104</v>
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>32500</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Bonsartine (Losartan 25mg)</v>
+        <v>Avodart (Dutasteride 0.5mg)</v>
       </c>
       <c r="B12" s="1">
-        <v>1665</v>
+        <v>30</v>
+      </c>
+      <c r="C12" s="1">
+        <v>569400</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Bustidin (Trimetazidin 20mg)</v>
+        <v>Be-Stedy 16 (Betahistine 16mg)</v>
       </c>
       <c r="B13" s="1">
-        <v>364</v>
+        <v>84</v>
+      </c>
+      <c r="C13" s="1">
+        <v>275100</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Calci D</v>
+        <v>Bonsartine (Losartan 25mg)</v>
       </c>
       <c r="B14" s="1">
-        <v>112</v>
+        <v>196</v>
+      </c>
+      <c r="C14" s="1">
+        <v>428260</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Calcium SANDOZ + vitamin D3</v>
+        <v>Bonsartine (Losartan 25mg)</v>
       </c>
       <c r="B15" s="1">
-        <v>56</v>
+        <v>506</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1105610</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Camoas (Flavoxat 200mg)</v>
+        <v>Bonsartine (Losartan 25mg)</v>
       </c>
       <c r="B16" s="1">
-        <v>21</v>
+        <v>56</v>
+      </c>
+      <c r="C16" s="1">
+        <v>122360</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Celevox (Levofloxacin 500mg)</v>
+        <v>Bustidin (Trimetazidin 20mg)</v>
       </c>
       <c r="B17" s="1">
-        <v>10</v>
+        <v>168</v>
+      </c>
+      <c r="C17" s="1">
+        <v>433440</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Cilavef (Celecoxib 200mg)</v>
+        <v>Bustidin (Trimetazidin 20mg)</v>
       </c>
       <c r="B18" s="1">
-        <v>74</v>
+        <v>392</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1011360</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Concor 2.5mg (Bisoprolol )</v>
+        <v>Calci D</v>
       </c>
       <c r="B19" s="1">
-        <v>560</v>
+        <v>112</v>
+      </c>
+      <c r="C19" s="1">
+        <v>48160</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Concor 5mg (Bisoprolol )</v>
+        <v>Calcium Corbiere</v>
       </c>
       <c r="B20" s="1">
-        <v>484</v>
+        <v>28</v>
+      </c>
+      <c r="C20" s="1">
+        <v>153440</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Copedina (Clopidogrel 75mg)</v>
+        <v>Chondrasil (Allopurinol 300mg)</v>
       </c>
       <c r="B21" s="1">
-        <v>539</v>
+        <v>56</v>
+      </c>
+      <c r="C21" s="1">
+        <v>238280</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Corbis (Bisoprolol 5mg)</v>
+        <v>Chophytol (Artichaut 200mg)</v>
       </c>
       <c r="B22" s="1">
-        <v>878</v>
+        <v>94</v>
+      </c>
+      <c r="C22" s="1">
+        <v>95880</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Cozaar (Losartan 50mg)</v>
+        <v>Concor 2.5mg (Bisoprolol )</v>
       </c>
       <c r="B23" s="1">
-        <v>84</v>
+        <v>46</v>
+      </c>
+      <c r="C23" s="1">
+        <v>166520</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Daflon (Diosmin, hesperidin)</v>
+        <v>Concor 2.5mg (Bisoprolol )</v>
       </c>
       <c r="B24" s="1">
-        <v>336</v>
+        <v>119</v>
+      </c>
+      <c r="C24" s="1">
+        <v>430780</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Destor (Desloratadine 5mg)</v>
+        <v>Concor 5mg (Bisoprolol )</v>
       </c>
       <c r="B25" s="1">
-        <v>368</v>
+        <v>140</v>
+      </c>
+      <c r="C25" s="1">
+        <v>690200</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Diamicron MR 30mg (Gliclazide)</v>
+        <v>Copedina (Clopidogrel 75mg)</v>
       </c>
       <c r="B26" s="1">
-        <v>126</v>
+        <v>15</v>
+      </c>
+      <c r="C26" s="1">
+        <v>181500</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Diurefar (Furosemide 40mg)</v>
+        <v>Copedina (Clopidogrel 75mg)</v>
       </c>
       <c r="B27" s="1">
-        <v>252</v>
+        <v>28</v>
+      </c>
+      <c r="C27" s="1">
+        <v>338800</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Doaspin 81mg (Acetylsalicylic)</v>
+        <v>Copedina (Clopidogrel 75mg)</v>
       </c>
       <c r="B28" s="1">
-        <v>519</v>
+        <v>259</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3133900</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Dochicin (Colchicine 1mg)</v>
+        <v>Copedina (Clopidogrel 75mg)</v>
       </c>
       <c r="B29" s="1">
-        <v>7</v>
+        <v>168</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2032800</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Dopegyt (Methyldopa 250mg)</v>
+        <v>Corbis (Bisoprolol 5mg)</v>
       </c>
       <c r="B30" s="1">
-        <v>506</v>
+        <v>15</v>
+      </c>
+      <c r="C30" s="1">
+        <v>51750</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Enterogermina 5ml</v>
+        <v>Corbis (Bisoprolol 5mg)</v>
       </c>
       <c r="B31" s="1">
-        <v>56</v>
+        <v>42</v>
+      </c>
+      <c r="C31" s="1">
+        <v>144900</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Enterogermina 5ml</v>
+        <v>Corbis (Bisoprolol 5mg)</v>
       </c>
       <c r="B32" s="1">
-        <v>84</v>
+        <v>571</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1969950</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Esocon  20mg (Esomeprazole)</v>
+        <v>Corbis (Bisoprolol 5mg)</v>
       </c>
       <c r="B33" s="1">
-        <v>642</v>
+        <v>252</v>
+      </c>
+      <c r="C33" s="1">
+        <v>869400</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Esserose (Phospholipids 450mg)</v>
+        <v>Daflon (Diosmin, hesperidin)</v>
       </c>
       <c r="B34" s="1">
-        <v>2296</v>
+        <v>28</v>
+      </c>
+      <c r="C34" s="1">
+        <v>115080</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Febuday (Febuxostat 40mg)</v>
+        <v>Destor (Desloratadine 5mg)</v>
       </c>
       <c r="B35" s="1">
-        <v>296</v>
+        <v>28</v>
+      </c>
+      <c r="C35" s="1">
+        <v>86940</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Flodilan-4 (Glimepirid)</v>
+        <v>Destor (Desloratadine 5mg)</v>
       </c>
       <c r="B36" s="1">
-        <v>1176</v>
+        <v>86</v>
+      </c>
+      <c r="C36" s="1">
+        <v>267030</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Forxiga (Dapagliflozin 10mg)</v>
+        <v>Diamicron MR 30mg (Gliclazide)</v>
       </c>
       <c r="B37" s="1">
-        <v>591</v>
+        <v>84</v>
+      </c>
+      <c r="C37" s="1">
+        <v>303240</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Forxiga (Dapagliflozin 5mg)</v>
+        <v>Diosfort (Diosmin 600mg)</v>
       </c>
       <c r="B38" s="1">
-        <v>868</v>
+        <v>560</v>
+      </c>
+      <c r="C38" s="1">
+        <v>3665200</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Fucidin H Cream 15g (Acid fusidic, hydrocortisone acetate)</v>
+        <v>Diurefar (Furosemide 40mg)</v>
       </c>
       <c r="B39" s="1">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1715</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Galvus 50mg (Vildagliptin)</v>
+        <v>Diurefar (Furosemide 40mg)</v>
       </c>
       <c r="B40" s="1">
-        <v>168</v>
+        <v>42</v>
+      </c>
+      <c r="C40" s="1">
+        <v>10290</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Galvus Met 50mg/1000mg (Vildagliptin,Metformin)</v>
+        <v>Doaspin 81mg (Acetylsalicylic)</v>
       </c>
       <c r="B41" s="1">
-        <v>2455</v>
+        <v>84</v>
+      </c>
+      <c r="C41" s="1">
+        <v>25200</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Gastropulgite (Attapulgite, hydroxide aluminium-carbonate magnesium)</v>
+        <v>Dopegyt (Methyldopa 250mg)</v>
       </c>
       <c r="B42" s="1">
-        <v>40</v>
+        <v>168</v>
+      </c>
+      <c r="C42" s="1">
+        <v>425040</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Genprid 2 (Glimepiride 2mg)</v>
+        <v>Esocon  20mg (Esomeprazole)</v>
       </c>
       <c r="B43" s="1">
-        <v>2428</v>
+        <v>56</v>
+      </c>
+      <c r="C43" s="1">
+        <v>585200</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Genprid 4 (Glimepiride 4mg)</v>
+        <v>Esocon  20mg (Esomeprazole)</v>
       </c>
       <c r="B44" s="1">
-        <v>2188</v>
+        <v>224</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2340800</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Glucobay 100mg (Acarbose)</v>
+        <v>Esocon  20mg (Esomeprazole)</v>
       </c>
       <c r="B45" s="1">
-        <v>14</v>
+        <v>112</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1170400</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Glucophage 1000mg (Metformin)</v>
+        <v>Esserose (Phospholipids 450mg)</v>
       </c>
       <c r="B46" s="1">
-        <v>732</v>
+        <v>168</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1016400</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Glucophage 500mg (Metformin)</v>
+        <v>Esserose (Phospholipids 450mg)</v>
       </c>
       <c r="B47" s="1">
-        <v>238</v>
+        <v>2198</v>
+      </c>
+      <c r="C47" s="1">
+        <v>13297900</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Glucophage 850mg (Metformin)</v>
+        <v>Esserose (Phospholipids 450mg)</v>
       </c>
       <c r="B48" s="1">
-        <v>140</v>
+        <v>112</v>
+      </c>
+      <c r="C48" s="1">
+        <v>677600</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Glucovance 500/2.5 (Metformin-glibenclamide)</v>
+        <v>Esserose (Phospholipids 450mg)</v>
       </c>
       <c r="B49" s="1">
-        <v>756</v>
+        <v>168</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1016400</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Glucovance 500/5 (Mefformin-glibenclamide)</v>
+        <v>Febuday (Febuxostat 40mg)</v>
       </c>
       <c r="B50" s="1">
-        <v>924</v>
+        <v>114</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1818300</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Goldagtin (Vildagliptin 50mg)</v>
+        <v>Flodilan-4 (Glimepirid)</v>
       </c>
       <c r="B51" s="1">
-        <v>336</v>
+        <v>112</v>
+      </c>
+      <c r="C51" s="1">
+        <v>463680</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Gujujnam (Piracetam 800mg)</v>
+        <v>Flodilan-4 (Glimepirid)</v>
       </c>
       <c r="B52" s="1">
-        <v>56</v>
+        <v>1476</v>
+      </c>
+      <c r="C52" s="1">
+        <v>6110640</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Hancetax (Mecobalamin 500mcg)</v>
+        <v>Flodilan-4 (Glimepirid)</v>
       </c>
       <c r="B53" s="1">
-        <v>1746</v>
+        <v>168</v>
+      </c>
+      <c r="C53" s="1">
+        <v>695520</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Hemfibrat (Fenofibrat 300mg)</v>
+        <v>Forxiga (Dapagliflozin 10mg)</v>
       </c>
       <c r="B54" s="1">
-        <v>891</v>
+        <v>224</v>
+      </c>
+      <c r="C54" s="1">
+        <v>4793600</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Hueso (Ursodeoxycholic 300mg)</v>
+        <v>Forxiga (Dapagliflozin 10mg)</v>
       </c>
       <c r="B55" s="1">
-        <v>56</v>
+        <v>84</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1848000</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Hyzaar 50/12.5mg (Losartan, hydrochlorothiazid)</v>
+        <v>Forxiga (Dapagliflozin 10mg)</v>
       </c>
       <c r="B56" s="1">
         <v>56</v>
       </c>
+      <c r="C56" s="1">
+        <v>1232000</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v xml:space="preserve">Kim Tiền Thảo </v>
+        <v>Forxiga (Dapagliflozin 5mg)</v>
       </c>
       <c r="B57" s="1">
-        <v>12</v>
+        <v>56</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1232000</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Kim Tiểu Đường (U - 100) Omnican</v>
+        <v>Forxiga (Dapagliflozin 5mg)</v>
       </c>
       <c r="B58" s="1">
-        <v>176</v>
+        <v>112</v>
+      </c>
+      <c r="C58" s="1">
+        <v>2464000</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Kogimin (Multivitamine &amp; Minerals)</v>
+        <v>Forxiga (Dapagliflozin 5mg)</v>
       </c>
       <c r="B59" s="1">
-        <v>906</v>
+        <v>84</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1797600</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Lantus Solostar 100IU/ml</v>
+        <v>Forxiga (Dapagliflozin 5mg)</v>
       </c>
       <c r="B60" s="1">
-        <v>26</v>
+        <v>84</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1848000</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Levothyrox 100mcg (Levothyroxine)</v>
+        <v>Forxiga (Dapagliflozin 5mg)</v>
       </c>
       <c r="B61" s="1">
-        <v>322</v>
+        <v>84</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1848000</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Levothyrox 50mcg (Levothyroxine)</v>
+        <v>Galvus 50mg (Vildagliptin)</v>
       </c>
       <c r="B62" s="1">
-        <v>1410</v>
+        <v>112</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1013040</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Livosil (Silymarin 140mg)</v>
+        <v>Galvus Met 50mg/1000mg (Vildagliptin,Metformin)</v>
       </c>
       <c r="B63" s="1">
-        <v>1656</v>
+        <v>224</v>
+      </c>
+      <c r="C63" s="1">
+        <v>2284800</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Lyrica 75Mg (Pregabalin)</v>
+        <v>Galvus Met 50mg/1000mg (Vildagliptin,Metformin)</v>
       </c>
       <c r="B64" s="1">
-        <v>56</v>
+        <v>1241</v>
+      </c>
+      <c r="C64" s="1">
+        <v>12658200</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Maxezole 40 (Esomeprazole 40mg)</v>
+        <v>Galvus Met 50mg/1000mg (Vildagliptin,Metformin)</v>
       </c>
       <c r="B65" s="1">
-        <v>84</v>
+        <v>168</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1713600</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+        <v>Genprid 2 (Glimepiride 2mg)</v>
       </c>
       <c r="B66" s="1">
-        <v>1604</v>
+        <v>580</v>
+      </c>
+      <c r="C66" s="1">
+        <v>2668000</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Metozamin (Metformin 850mg)</v>
+        <v>Genprid 2 (Glimepiride 2mg)</v>
       </c>
       <c r="B67" s="1">
-        <v>174</v>
+        <v>364</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1674400</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v xml:space="preserve">Mg B6 </v>
+        <v>Genprid 2 (Glimepiride 2mg)</v>
       </c>
       <c r="B68" s="1">
-        <v>168</v>
+        <v>784</v>
+      </c>
+      <c r="C68" s="1">
+        <v>3606400</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Mimosa</v>
+        <v>Genprid 2 (Glimepiride 2mg)</v>
       </c>
       <c r="B69" s="1">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="C69" s="1">
+        <v>128800</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Mixtard 30 Flexpen 100IU/ml</v>
+        <v>Genprid 2 (Glimepiride 2mg)</v>
       </c>
       <c r="B70" s="1">
-        <v>7</v>
+        <v>567</v>
+      </c>
+      <c r="C70" s="1">
+        <v>2608200</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Mixtard 30Hm 100IU/10ml</v>
+        <v>Genprid 4 (Glimepiride 4mg)</v>
       </c>
       <c r="B71" s="1">
-        <v>3</v>
+        <v>168</v>
+      </c>
+      <c r="C71" s="1">
+        <v>960960</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Motilium M (Domperidone 10mg)</v>
+        <v>Genprid 4 (Glimepiride 4mg)</v>
       </c>
       <c r="B72" s="1">
-        <v>58</v>
+        <v>728</v>
+      </c>
+      <c r="C72" s="1">
+        <v>4164160</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Natrilix (Indapamide 1.5mg)</v>
+        <v>Glucophage 1000mg (Metformin)</v>
       </c>
       <c r="B73" s="1">
-        <v>49</v>
+        <v>60</v>
+      </c>
+      <c r="C73" s="1">
+        <v>255000</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Nautamin (Diphenhydramine 90mg)</v>
+        <v>Glucophage 1000mg (Metformin)</v>
       </c>
       <c r="B74" s="1">
-        <v>70</v>
+        <v>504</v>
+      </c>
+      <c r="C74" s="1">
+        <v>2142000</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Neurontin (Gabapentin 300mg)</v>
+        <v>Glucophage 1000mg (Metformin)</v>
       </c>
       <c r="B75" s="1">
-        <v>706</v>
+        <v>112</v>
+      </c>
+      <c r="C75" s="1">
+        <v>476000</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Nexium (Esomeprazole 20mg)</v>
+        <v>Glucophage 500mg (Metformin)</v>
       </c>
       <c r="B76" s="1">
-        <v>196</v>
+        <v>84</v>
+      </c>
+      <c r="C76" s="1">
+        <v>154140</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Nifedipin 20</v>
+        <v>Glucophage 500mg (Metformin)</v>
       </c>
       <c r="B77" s="1">
-        <v>168</v>
+        <v>84</v>
+      </c>
+      <c r="C77" s="1">
+        <v>154140</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Nikoramyl (Nicorandil 5mg)</v>
+        <v>Glucophage 850mg (Metformin)</v>
       </c>
       <c r="B78" s="1">
-        <v>412</v>
+        <v>280</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1145200</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Normodipine (Amlodipine 5mg)</v>
+        <v>Glucovance 500/2.5 (Metformin-glibenclamide)</v>
       </c>
       <c r="B79" s="1">
-        <v>732</v>
+        <v>84</v>
+      </c>
+      <c r="C79" s="1">
+        <v>440160</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Novofine 31g X 6mm B/100 (Kim)</v>
+        <v>Glucovance 500/2.5 (Metformin-glibenclamide)</v>
       </c>
       <c r="B80" s="1">
-        <v>194</v>
+        <v>518</v>
+      </c>
+      <c r="C80" s="1">
+        <v>2714320</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v xml:space="preserve">Novomix Flexpen </v>
+        <v>Glucovance 500/5 (Mefformin-glibenclamide)</v>
       </c>
       <c r="B81" s="1">
-        <v>19</v>
+        <v>398</v>
+      </c>
+      <c r="C81" s="1">
+        <v>2157160</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Novorapid Flexpen 100U/ml</v>
+        <v>Glucovance 500/5 (Mefformin-glibenclamide)</v>
       </c>
       <c r="B82" s="1">
-        <v>4</v>
+        <v>56</v>
+      </c>
+      <c r="C82" s="1">
+        <v>303520</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Opecerin (Diacerein 50mg)</v>
+        <v>Goldagtin (Vildagliptin 50mg)</v>
       </c>
       <c r="B83" s="1">
-        <v>28</v>
+        <v>336</v>
+      </c>
+      <c r="C83" s="1">
+        <v>2882880</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Optipan (Diacerhein 50mg)</v>
+        <v>Goldagtin (Vildagliptin 50mg)</v>
       </c>
       <c r="B84" s="1">
-        <v>2565</v>
+        <v>168</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1441440</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Panadol Extra (Paracetamol, caffeine)</v>
+        <v>Gujujnam (Piracetam 800mg)</v>
       </c>
       <c r="B85" s="1">
-        <v>20</v>
+        <v>56</v>
+      </c>
+      <c r="C85" s="1">
+        <v>225400</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Pepsan (Gaiazulene, dimeticone)</v>
+        <v>Hancetax (Mecobalamin 500mcg)</v>
       </c>
       <c r="B86" s="1">
-        <v>84</v>
+        <v>802</v>
+      </c>
+      <c r="C86" s="1">
+        <v>2213520</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>PhilBone-A (Calcitriol 0.25mcg)</v>
+        <v>Hancetax (Mecobalamin 500mcg)</v>
       </c>
       <c r="B87" s="1">
-        <v>2200</v>
+        <v>168</v>
+      </c>
+      <c r="C87" s="1">
+        <v>463680</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Phosphalugel (Colloidal aluminium phosphate)</v>
+        <v>Hemfibrat (Fenofibrat 300mg)</v>
       </c>
       <c r="B88" s="1">
-        <v>84</v>
+        <v>56</v>
+      </c>
+      <c r="C88" s="1">
+        <v>193200</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Picencal (Calcium &amp; Vitamin D)</v>
+        <v>Hemfibrat (Fenofibrat 300mg)</v>
       </c>
       <c r="B89" s="1">
-        <v>588</v>
+        <v>14</v>
+      </c>
+      <c r="C89" s="1">
+        <v>48300</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Plavix-clopidogrel 75mg</v>
+        <v>Hemfibrat (Fenofibrat 300mg)</v>
       </c>
       <c r="B90" s="1">
-        <v>56</v>
+        <v>308</v>
+      </c>
+      <c r="C90" s="1">
+        <v>1062600</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Povidine 20ml</v>
+        <v>Hemfibrat (Fenofibrat 300mg)</v>
       </c>
       <c r="B91" s="1">
-        <v>1</v>
+        <v>84</v>
+      </c>
+      <c r="C91" s="1">
+        <v>289800</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v xml:space="preserve">Prednisone </v>
+        <v>Hueso (Ursodeoxycholic 300mg)</v>
       </c>
       <c r="B92" s="1">
-        <v>280</v>
+        <v>14</v>
+      </c>
+      <c r="C92" s="1">
+        <v>203280</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Pricefil (Cefprozil 500mg)</v>
+        <v>Hueso (Ursodeoxycholic 300mg)</v>
       </c>
       <c r="B93" s="1">
-        <v>7</v>
+        <v>140</v>
+      </c>
+      <c r="C93" s="1">
+        <v>2032800</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Primpéran (viên) (Metoclopramide 10mg)</v>
+        <v>Hyzaar 50/12.5mg (Losartan, hydrochlorothiazid)</v>
       </c>
       <c r="B94" s="1">
-        <v>20</v>
+        <v>84</v>
+      </c>
+      <c r="C94" s="1">
+        <v>772800</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Remem (Ginkgo biloba 120mg)</v>
+        <v>Hyzaar 50/12.5mg (Losartan, hydrochlorothiazid)</v>
       </c>
       <c r="B95" s="1">
         <v>84</v>
+      </c>
+      <c r="C95" s="1">
+        <v>772800</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Rotalzon (Losartan 50mg)</v>
+        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
       </c>
       <c r="B96" s="1">
-        <v>3562</v>
+        <v>196</v>
+      </c>
+      <c r="C96" s="1">
+        <v>698740</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Ryzodeg Flextouch 100U/ml</v>
+        <v>Janumet (Sitagliptin 50mg+metformin1000mg)</v>
       </c>
       <c r="B97" s="1">
-        <v>3</v>
+        <v>84</v>
+      </c>
+      <c r="C97" s="1">
+        <v>982800</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Safena (Atorvastatin 10mg)</v>
+        <v>Ketosteril</v>
       </c>
       <c r="B98" s="1">
-        <v>742</v>
+        <v>70</v>
+      </c>
+      <c r="C98" s="1">
+        <v>1092000</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Somexwell (Esomeprazole 20mg</v>
+        <v>Kogimin (Multivitamine &amp; Minerals)</v>
       </c>
       <c r="B99" s="1">
-        <v>56</v>
+        <v>294</v>
+      </c>
+      <c r="C99" s="1">
+        <v>1014300</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Sporal (Itraconazole 100mg)</v>
+        <v>Kogimin (Multivitamine &amp; Minerals)</v>
       </c>
       <c r="B100" s="1">
-        <v>20</v>
+        <v>364</v>
+      </c>
+      <c r="C100" s="1">
+        <v>1255800</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Stadpizide (Sulpirid 50mg)</v>
+        <v>Lantus Solostar 100IU/ml</v>
       </c>
       <c r="B101" s="1">
-        <v>56</v>
+        <v>23</v>
+      </c>
+      <c r="C101" s="1">
+        <v>6808000</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Stugeron (Cinnarizine 25mg)</v>
+        <v>Levothyrox 100mcg (Levothyroxine)</v>
       </c>
       <c r="B102" s="1">
-        <v>371</v>
+        <v>196</v>
+      </c>
+      <c r="C102" s="1">
+        <v>331240</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Surotadina (Rosuvastatin 10mg)</v>
+        <v>Levothyrox 100mcg (Levothyroxine)</v>
       </c>
       <c r="B103" s="1">
-        <v>1498</v>
+        <v>140</v>
+      </c>
+      <c r="C103" s="1">
+        <v>236600</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Tadalafil Stada (Tadalafil 10mg)</v>
+        <v>Levothyrox 50mcg (Levothyroxine)</v>
       </c>
       <c r="B104" s="1">
-        <v>2</v>
+        <v>126</v>
+      </c>
+      <c r="C104" s="1">
+        <v>145530</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Taginyl VN (Acetyl-DL-Leucine 500mg)</v>
+        <v>Levothyrox 50mcg (Levothyroxine)</v>
       </c>
       <c r="B105" s="1">
-        <v>228</v>
+        <v>42</v>
+      </c>
+      <c r="C105" s="1">
+        <v>48510</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Talroma (Tiropramide 100mg)</v>
+        <v>Levothyrox 50mcg (Levothyroxine)</v>
       </c>
       <c r="B106" s="1">
-        <v>21</v>
+        <v>504</v>
+      </c>
+      <c r="C106" s="1">
+        <v>582120</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Tanakan (Ginkgo biloba 40mg)</v>
+        <v>Livosil (Silymarin 140mg)</v>
       </c>
       <c r="B107" s="1">
-        <v>126</v>
+        <v>288</v>
+      </c>
+      <c r="C107" s="1">
+        <v>2154240</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Telod (Telmisartan 40mg)</v>
+        <v>Livosil (Silymarin 140mg)</v>
       </c>
       <c r="B108" s="1">
-        <v>112</v>
+        <v>1412</v>
+      </c>
+      <c r="C108" s="1">
+        <v>10561760</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Thyrozol 5mg (Thiamazole)</v>
+        <v>Livosil (Silymarin 140mg)</v>
       </c>
       <c r="B109" s="1">
-        <v>3702</v>
+        <v>56</v>
+      </c>
+      <c r="C109" s="1">
+        <v>418880</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Trajenta 5mg (Linagliptin)</v>
+        <v>Locinvid (Levofloxacin 500mg)</v>
       </c>
       <c r="B110" s="1">
-        <v>168</v>
+        <v>10</v>
+      </c>
+      <c r="C110" s="1">
+        <v>187000</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Triglo (Fenofibrate 200mg)</v>
+        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
       </c>
       <c r="B111" s="1">
-        <v>644</v>
+        <v>30</v>
+      </c>
+      <c r="C111" s="1">
+        <v>144900</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Trymo (Bismuth Subcitrate)</v>
+        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
       </c>
       <c r="B112" s="1">
-        <v>112</v>
+        <v>126</v>
+      </c>
+      <c r="C112" s="1">
+        <v>608580</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Tyrozet (Metformin 850mg)</v>
+        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
       </c>
       <c r="B113" s="1">
-        <v>4667</v>
+        <v>604</v>
+      </c>
+      <c r="C113" s="1">
+        <v>2917320</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Vastarel MR (Trimetazindine) 35mg</v>
+        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
       </c>
       <c r="B114" s="1">
-        <v>140</v>
+        <v>71</v>
+      </c>
+      <c r="C114" s="1">
+        <v>342930</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Verist (Betahistine 16mg)</v>
+        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
       </c>
       <c r="B115" s="1">
-        <v>42</v>
+        <v>252</v>
+      </c>
+      <c r="C115" s="1">
+        <v>1217160</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Vigorito (Vildagliptin 50mg)</v>
+        <v xml:space="preserve">Mg B6 </v>
       </c>
       <c r="B116" s="1">
-        <v>4426</v>
+        <v>56</v>
+      </c>
+      <c r="C116" s="1">
+        <v>118720</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Vitamin B1 250mg (VN)</v>
+        <v>Mimosa</v>
       </c>
       <c r="B117" s="1">
-        <v>126</v>
+        <v>50</v>
+      </c>
+      <c r="C117" s="1">
+        <v>71500</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Voltaren 1% Emulgel 20g</v>
+        <v>Motilium M (Domperidone 10mg)</v>
       </c>
       <c r="B118" s="1">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="C118" s="1">
+        <v>49200</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
+        <v>Motilium M (Domperidone 10mg)</v>
+      </c>
+      <c r="B119" s="1">
+        <v>20</v>
+      </c>
+      <c r="C119" s="1">
+        <v>49200</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>Natrilix (Indapamide 1.5mg)</v>
+      </c>
+      <c r="B120" s="1">
+        <v>84</v>
+      </c>
+      <c r="C120" s="1">
+        <v>346080</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>Nautamin (Diphenhydramine 90mg)</v>
+      </c>
+      <c r="B121" s="1">
+        <v>84</v>
+      </c>
+      <c r="C121" s="1">
+        <v>260400</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>Neurobion (B1 100mg,B6 200mg,B12 200mcg)</v>
+      </c>
+      <c r="B122" s="1">
+        <v>112</v>
+      </c>
+      <c r="C122" s="1">
+        <v>249760</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>Neurontin (Gabapentin 300mg)</v>
+      </c>
+      <c r="B123" s="1">
+        <v>63</v>
+      </c>
+      <c r="C123" s="1">
+        <v>812700</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>Neurontin (Gabapentin 300mg)</v>
+      </c>
+      <c r="B124" s="1">
+        <v>28</v>
+      </c>
+      <c r="C124" s="1">
+        <v>361200</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>Nexium (Esomeprazole 20mg)</v>
+      </c>
+      <c r="B125" s="1">
+        <v>28</v>
+      </c>
+      <c r="C125" s="1">
+        <v>691600</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>Nikoramyl (Nicorandil 5mg)</v>
+      </c>
+      <c r="B126" s="1">
+        <v>140</v>
+      </c>
+      <c r="C126" s="1">
+        <v>563500</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>Nikoramyl (Nicorandil 5mg)</v>
+      </c>
+      <c r="B127" s="1">
+        <v>30</v>
+      </c>
+      <c r="C127" s="1">
+        <v>120750</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B128" s="1">
+        <v>42</v>
+      </c>
+      <c r="C128" s="1">
+        <v>193200</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B129" s="1">
+        <v>672</v>
+      </c>
+      <c r="C129" s="1">
+        <v>3091200</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>Novofine 31g X 6mm B/100 (Kim)</v>
+      </c>
+      <c r="B130" s="1">
+        <v>225</v>
+      </c>
+      <c r="C130" s="1">
+        <v>555750</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v xml:space="preserve">Novomix Flexpen </v>
+      </c>
+      <c r="B131" s="1">
+        <v>16</v>
+      </c>
+      <c r="C131" s="1">
+        <v>4288000</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>Optipan (Diacerhein 50mg)</v>
+      </c>
+      <c r="B132" s="1">
+        <v>336</v>
+      </c>
+      <c r="C132" s="1">
+        <v>3659040</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>Optipan (Diacerhein 50mg)</v>
+      </c>
+      <c r="B133" s="1">
+        <v>758</v>
+      </c>
+      <c r="C133" s="1">
+        <v>8254620</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>Optipan (Diacerhein 50mg)</v>
+      </c>
+      <c r="B134" s="1">
+        <v>84</v>
+      </c>
+      <c r="C134" s="1">
+        <v>914760</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v xml:space="preserve">Ospamox (Amox 500mg) </v>
+      </c>
+      <c r="B135" s="1">
+        <v>56</v>
+      </c>
+      <c r="C135" s="1">
+        <v>120400</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>Pepsan (Gaiazulene, dimeticone)</v>
+      </c>
+      <c r="B136" s="1">
+        <v>18</v>
+      </c>
+      <c r="C136" s="1">
+        <v>89460</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>PhilBone-A (Calcitriol 0.25mcg)</v>
+      </c>
+      <c r="B137" s="1">
+        <v>84</v>
+      </c>
+      <c r="C137" s="1">
+        <v>265440</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>PhilBone-A (Calcitriol 0.25mcg)</v>
+      </c>
+      <c r="B138" s="1">
+        <v>231</v>
+      </c>
+      <c r="C138" s="1">
+        <v>729960</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>PhilBone-A (Calcitriol 0.25mcg)</v>
+      </c>
+      <c r="B139" s="1">
+        <v>420</v>
+      </c>
+      <c r="C139" s="1">
+        <v>1327200</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>PhilBone-A (Calcitriol 0.25mcg)</v>
+      </c>
+      <c r="B140" s="1">
+        <v>336</v>
+      </c>
+      <c r="C140" s="1">
+        <v>1061760</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B141" s="1">
+        <v>140</v>
+      </c>
+      <c r="C141" s="1">
+        <v>563500</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B142" s="1">
+        <v>168</v>
+      </c>
+      <c r="C142" s="1">
+        <v>676200</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>Phosphalugel (Colloidal aluminium phosphate)</v>
+      </c>
+      <c r="B143" s="1">
+        <v>84</v>
+      </c>
+      <c r="C143" s="1">
+        <v>387240</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
+      </c>
+      <c r="B144" s="1">
+        <v>84</v>
+      </c>
+      <c r="C144" s="1">
+        <v>280140</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
+      </c>
+      <c r="B145" s="1">
+        <v>280</v>
+      </c>
+      <c r="C145" s="1">
+        <v>933800</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
+      </c>
+      <c r="B146" s="1">
+        <v>84</v>
+      </c>
+      <c r="C146" s="1">
+        <v>280140</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v xml:space="preserve">Prednisone </v>
+      </c>
+      <c r="B147" s="1">
+        <v>35</v>
+      </c>
+      <c r="C147" s="1">
+        <v>15925</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v xml:space="preserve">Prednisone </v>
+      </c>
+      <c r="B148" s="1">
+        <v>28</v>
+      </c>
+      <c r="C148" s="1">
+        <v>12740</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>Remem (Ginkgo biloba 120mg)</v>
+      </c>
+      <c r="B149" s="1">
+        <v>84</v>
+      </c>
+      <c r="C149" s="1">
+        <v>776160</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>Remem (Ginkgo biloba 120mg)</v>
+      </c>
+      <c r="B150" s="1">
+        <v>84</v>
+      </c>
+      <c r="C150" s="1">
+        <v>776160</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>Rotalzon (Losartan 50mg)</v>
+      </c>
+      <c r="B151" s="1">
+        <v>396</v>
+      </c>
+      <c r="C151" s="1">
+        <v>2831400</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>Rotalzon (Losartan 50mg)</v>
+      </c>
+      <c r="B152" s="1">
+        <v>224</v>
+      </c>
+      <c r="C152" s="1">
+        <v>1601600</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>Rotalzon (Losartan 50mg)</v>
+      </c>
+      <c r="B153" s="1">
+        <v>1302</v>
+      </c>
+      <c r="C153" s="1">
+        <v>9309300</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>Rotalzon (Losartan 50mg)</v>
+      </c>
+      <c r="B154" s="1">
+        <v>30</v>
+      </c>
+      <c r="C154" s="1">
+        <v>214500</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>Rotalzon (Losartan 50mg)</v>
+      </c>
+      <c r="B155" s="1">
+        <v>168</v>
+      </c>
+      <c r="C155" s="1">
+        <v>1201200</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>Rotalzon (Losartan 50mg)</v>
+      </c>
+      <c r="B156" s="1">
+        <v>28</v>
+      </c>
+      <c r="C156" s="1">
+        <v>200200</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>Safena (Atorvastatin 10mg)</v>
+      </c>
+      <c r="B157" s="1">
+        <v>196</v>
+      </c>
+      <c r="C157" s="1">
+        <v>777140</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>Safena (Atorvastatin 10mg)</v>
+      </c>
+      <c r="B158" s="1">
+        <v>126</v>
+      </c>
+      <c r="C158" s="1">
+        <v>499590</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>Sodinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B159" s="1">
+        <v>14</v>
+      </c>
+      <c r="C159" s="1">
+        <v>231000</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>Stroseca (Ivermectin 6mg)</v>
+      </c>
+      <c r="B160" s="1">
+        <v>2</v>
+      </c>
+      <c r="C160" s="1">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>Stugeron (Cinnarizine 25mg)</v>
+      </c>
+      <c r="B161" s="1">
+        <v>42</v>
+      </c>
+      <c r="C161" s="1">
+        <v>35700</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>Stugeron (Cinnarizine 25mg)</v>
+      </c>
+      <c r="B162" s="1">
+        <v>42</v>
+      </c>
+      <c r="C162" s="1">
+        <v>35700</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>Stugeron (Cinnarizine 25mg)</v>
+      </c>
+      <c r="B163" s="1">
+        <v>141</v>
+      </c>
+      <c r="C163" s="1">
+        <v>119850</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>Surotadina (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B164" s="1">
+        <v>98</v>
+      </c>
+      <c r="C164" s="1">
+        <v>1067220</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>Surotadina (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B165" s="1">
+        <v>186</v>
+      </c>
+      <c r="C165" s="1">
+        <v>2025540</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>Surotadina (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B166" s="1">
+        <v>308</v>
+      </c>
+      <c r="C166" s="1">
+        <v>3354120</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>Surotadina (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B167" s="1">
+        <v>168</v>
+      </c>
+      <c r="C167" s="1">
+        <v>1829520</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>Taginyl VN (Acetyl-DL-Leucine 500mg)</v>
+      </c>
+      <c r="B168" s="1">
+        <v>30</v>
+      </c>
+      <c r="C168" s="1">
+        <v>20700</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B169" s="1">
+        <v>254</v>
+      </c>
+      <c r="C169" s="1">
+        <v>1927860</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B170" s="1">
+        <v>168</v>
+      </c>
+      <c r="C170" s="1">
+        <v>1275120</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>Thyrozol 5mg (Thiamazole)</v>
+      </c>
+      <c r="B171" s="1">
+        <v>200</v>
+      </c>
+      <c r="C171" s="1">
+        <v>322000</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>Thyrozol 5mg (Thiamazole)</v>
+      </c>
+      <c r="B172" s="1">
+        <v>952</v>
+      </c>
+      <c r="C172" s="1">
+        <v>1532720</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>Thyrozol 5mg (Thiamazole)</v>
+      </c>
+      <c r="B173" s="1">
+        <v>98</v>
+      </c>
+      <c r="C173" s="1">
+        <v>157780</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>Thyrozol 5mg (Thiamazole)</v>
+      </c>
+      <c r="B174" s="1">
+        <v>224</v>
+      </c>
+      <c r="C174" s="1">
+        <v>360640</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>Trajenta 5mg (Linagliptin)</v>
+      </c>
+      <c r="B175" s="1">
+        <v>140</v>
+      </c>
+      <c r="C175" s="1">
+        <v>2487800</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>Trajenta 5mg (Linagliptin)</v>
+      </c>
+      <c r="B176" s="1">
+        <v>14</v>
+      </c>
+      <c r="C176" s="1">
+        <v>248780</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>Trajenta 5mg (Linagliptin)</v>
+      </c>
+      <c r="B177" s="1">
+        <v>80</v>
+      </c>
+      <c r="C177" s="1">
+        <v>1421600</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>Triglo (Fenofibrate 200mg)</v>
+      </c>
+      <c r="B178" s="1">
+        <v>84</v>
+      </c>
+      <c r="C178" s="1">
+        <v>289800</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>Triglo (Fenofibrate 200mg)</v>
+      </c>
+      <c r="B179" s="1">
+        <v>172</v>
+      </c>
+      <c r="C179" s="1">
+        <v>593400</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>Triglo (Fenofibrate 200mg)</v>
+      </c>
+      <c r="B180" s="1">
+        <v>84</v>
+      </c>
+      <c r="C180" s="1">
+        <v>289800</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>Triglo (Fenofibrate 200mg)</v>
+      </c>
+      <c r="B181" s="1">
+        <v>364</v>
+      </c>
+      <c r="C181" s="1">
+        <v>1255800</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>Tyrozet (Metformin 850mg)</v>
+      </c>
+      <c r="B182" s="1">
+        <v>308</v>
+      </c>
+      <c r="C182" s="1">
+        <v>743820</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>Tyrozet (Metformin 850mg)</v>
+      </c>
+      <c r="B183" s="1">
+        <v>1978</v>
+      </c>
+      <c r="C183" s="1">
+        <v>4776870</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>Tyrozet (Metformin 850mg)</v>
+      </c>
+      <c r="B184" s="1">
+        <v>238</v>
+      </c>
+      <c r="C184" s="1">
+        <v>574770</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>Tyrozet (Metformin 850mg)</v>
+      </c>
+      <c r="B185" s="1">
+        <v>86</v>
+      </c>
+      <c r="C185" s="1">
+        <v>207690</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>Tyrozet (Metformin 850mg)</v>
+      </c>
+      <c r="B186" s="1">
+        <v>812</v>
+      </c>
+      <c r="C186" s="1">
+        <v>1960980</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>Vastarel MR (Trimetazindine) 35mg</v>
+      </c>
+      <c r="B187" s="1">
+        <v>228</v>
+      </c>
+      <c r="C187" s="1">
+        <v>779760</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>Vigorito (Vildagliptin 50mg)</v>
+      </c>
+      <c r="B188" s="1">
+        <v>434</v>
+      </c>
+      <c r="C188" s="1">
+        <v>3723720</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>Vigorito (Vildagliptin 50mg)</v>
+      </c>
+      <c r="B189" s="1">
+        <v>2190</v>
+      </c>
+      <c r="C189" s="1">
+        <v>18790200</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>Vigorito (Vildagliptin 50mg)</v>
+      </c>
+      <c r="B190" s="1">
+        <v>63</v>
+      </c>
+      <c r="C190" s="1">
+        <v>540540</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>Vigorito (Vildagliptin 50mg)</v>
+      </c>
+      <c r="B191" s="1">
+        <v>60</v>
+      </c>
+      <c r="C191" s="1">
+        <v>514800</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>Vigorito (Vildagliptin 50mg)</v>
+      </c>
+      <c r="B192" s="1">
+        <v>476</v>
+      </c>
+      <c r="C192" s="1">
+        <v>4084080</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B119" s="1">
-        <v>65320</v>
-      </c>
-      <c r="C119" s="1">
-        <v>NaN</v>
+      <c r="B193" s="1">
+        <v>45306</v>
+      </c>
+      <c r="C193" s="1">
+        <v>273806808</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C119"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C193"/>
   </ignoredErrors>
 </worksheet>
 </file>